--- a/web/import/contacts.xlsx
+++ b/web/import/contacts.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLATA-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLATA-PC\workspace\entrances\web\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23490" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="pgweb_1528743009" localSheetId="0">Feuil1!#REF!</definedName>
+    <definedName name="pgweb_1528743009_1" localSheetId="0">Feuil1!$A$1:$A$143</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,6 +26,734 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="pgweb-15287430091" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\PLATA-PC\Desktop\pgweb-1528743009.csv" decimal="," thousands=" ">
+      <textFields>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="237">
+  <si>
+    <t>699880022</t>
+  </si>
+  <si>
+    <t>694725279</t>
+  </si>
+  <si>
+    <t>677050288</t>
+  </si>
+  <si>
+    <t>695921971</t>
+  </si>
+  <si>
+    <t>697166143</t>
+  </si>
+  <si>
+    <t>69423855</t>
+  </si>
+  <si>
+    <t>698614744</t>
+  </si>
+  <si>
+    <t>658205844</t>
+  </si>
+  <si>
+    <t>693051317</t>
+  </si>
+  <si>
+    <t>697546411</t>
+  </si>
+  <si>
+    <t>695414208</t>
+  </si>
+  <si>
+    <t>679409456</t>
+  </si>
+  <si>
+    <t>690685593</t>
+  </si>
+  <si>
+    <t>655241848</t>
+  </si>
+  <si>
+    <t>668713203</t>
+  </si>
+  <si>
+    <t>656637773</t>
+  </si>
+  <si>
+    <t>664464704</t>
+  </si>
+  <si>
+    <t>695142667</t>
+  </si>
+  <si>
+    <t>695109501</t>
+  </si>
+  <si>
+    <t>655433200</t>
+  </si>
+  <si>
+    <t>655300643</t>
+  </si>
+  <si>
+    <t>682235990</t>
+  </si>
+  <si>
+    <t>698354001</t>
+  </si>
+  <si>
+    <t>655262253</t>
+  </si>
+  <si>
+    <t>661539248</t>
+  </si>
+  <si>
+    <t>653207019</t>
+  </si>
+  <si>
+    <t>698765066</t>
+  </si>
+  <si>
+    <t>693668997</t>
+  </si>
+  <si>
+    <t>683111911</t>
+  </si>
+  <si>
+    <t>655121615</t>
+  </si>
+  <si>
+    <t>691837887</t>
+  </si>
+  <si>
+    <t>696035959</t>
+  </si>
+  <si>
+    <t>693182978</t>
+  </si>
+  <si>
+    <t>697279723</t>
+  </si>
+  <si>
+    <t>696564297</t>
+  </si>
+  <si>
+    <t>694683588</t>
+  </si>
+  <si>
+    <t>680802774</t>
+  </si>
+  <si>
+    <t>691248637</t>
+  </si>
+  <si>
+    <t>655123972</t>
+  </si>
+  <si>
+    <t>655317268</t>
+  </si>
+  <si>
+    <t>656043720</t>
+  </si>
+  <si>
+    <t>696650098</t>
+  </si>
+  <si>
+    <t>676998783</t>
+  </si>
+  <si>
+    <t>650474630</t>
+  </si>
+  <si>
+    <t>695651177</t>
+  </si>
+  <si>
+    <t>694298253</t>
+  </si>
+  <si>
+    <t>694227712</t>
+  </si>
+  <si>
+    <t>658274423</t>
+  </si>
+  <si>
+    <t>678465745</t>
+  </si>
+  <si>
+    <t>651063085</t>
+  </si>
+  <si>
+    <t>691818697</t>
+  </si>
+  <si>
+    <t>696640096</t>
+  </si>
+  <si>
+    <t>661350762</t>
+  </si>
+  <si>
+    <t>697377506</t>
+  </si>
+  <si>
+    <t>696476354</t>
+  </si>
+  <si>
+    <t>699873620</t>
+  </si>
+  <si>
+    <t>693740801</t>
+  </si>
+  <si>
+    <t>695876949</t>
+  </si>
+  <si>
+    <t>656198619</t>
+  </si>
+  <si>
+    <t>653895134</t>
+  </si>
+  <si>
+    <t>655319356</t>
+  </si>
+  <si>
+    <t>699367101</t>
+  </si>
+  <si>
+    <t>690508950</t>
+  </si>
+  <si>
+    <t>698830570</t>
+  </si>
+  <si>
+    <t>695702033</t>
+  </si>
+  <si>
+    <t>654835592</t>
+  </si>
+  <si>
+    <t>690935366</t>
+  </si>
+  <si>
+    <t>697665000</t>
+  </si>
+  <si>
+    <t>696623194</t>
+  </si>
+  <si>
+    <t>691694918</t>
+  </si>
+  <si>
+    <t>690951162</t>
+  </si>
+  <si>
+    <t>655318374</t>
+  </si>
+  <si>
+    <t>680448533</t>
+  </si>
+  <si>
+    <t>656713435</t>
+  </si>
+  <si>
+    <t>690561872</t>
+  </si>
+  <si>
+    <t>690892445</t>
+  </si>
+  <si>
+    <t>680411565</t>
+  </si>
+  <si>
+    <t>683923663</t>
+  </si>
+  <si>
+    <t>693459458</t>
+  </si>
+  <si>
+    <t>697246678</t>
+  </si>
+  <si>
+    <t>690497981</t>
+  </si>
+  <si>
+    <t>242988810</t>
+  </si>
+  <si>
+    <t>691505465</t>
+  </si>
+  <si>
+    <t>699441824</t>
+  </si>
+  <si>
+    <t>652263465</t>
+  </si>
+  <si>
+    <t>690559621</t>
+  </si>
+  <si>
+    <t>694210203</t>
+  </si>
+  <si>
+    <t>655080513</t>
+  </si>
+  <si>
+    <t>656059990</t>
+  </si>
+  <si>
+    <t>698145819</t>
+  </si>
+  <si>
+    <t>690107564</t>
+  </si>
+  <si>
+    <t>655316126</t>
+  </si>
+  <si>
+    <t>656270382</t>
+  </si>
+  <si>
+    <t>691500669</t>
+  </si>
+  <si>
+    <t>674493357</t>
+  </si>
+  <si>
+    <t>693092028</t>
+  </si>
+  <si>
+    <t>693594716</t>
+  </si>
+  <si>
+    <t>655874410</t>
+  </si>
+  <si>
+    <t>697034476</t>
+  </si>
+  <si>
+    <t>694679419</t>
+  </si>
+  <si>
+    <t>690674595</t>
+  </si>
+  <si>
+    <t>650164409</t>
+  </si>
+  <si>
+    <t>695931789</t>
+  </si>
+  <si>
+    <t>672733788</t>
+  </si>
+  <si>
+    <t>656353894</t>
+  </si>
+  <si>
+    <t>695534290</t>
+  </si>
+  <si>
+    <t>656016077</t>
+  </si>
+  <si>
+    <t>693417673</t>
+  </si>
+  <si>
+    <t>695160784</t>
+  </si>
+  <si>
+    <t>653223116</t>
+  </si>
+  <si>
+    <t>656189829</t>
+  </si>
+  <si>
+    <t>677314456</t>
+  </si>
+  <si>
+    <t>691199238</t>
+  </si>
+  <si>
+    <t>656055566</t>
+  </si>
+  <si>
+    <t>678396599</t>
+  </si>
+  <si>
+    <t>696688576</t>
+  </si>
+  <si>
+    <t>691165262</t>
+  </si>
+  <si>
+    <t>675469379</t>
+  </si>
+  <si>
+    <t>651110524</t>
+  </si>
+  <si>
+    <t>650083470</t>
+  </si>
+  <si>
+    <t>679653859</t>
+  </si>
+  <si>
+    <t>679569422</t>
+  </si>
+  <si>
+    <t>676447537</t>
+  </si>
+  <si>
+    <t>699010032</t>
+  </si>
+  <si>
+    <t>655345621</t>
+  </si>
+  <si>
+    <t>698697306</t>
+  </si>
+  <si>
+    <t>696342196</t>
+  </si>
+  <si>
+    <t>650837672</t>
+  </si>
+  <si>
+    <t>694638198</t>
+  </si>
+  <si>
+    <t>698041567</t>
+  </si>
+  <si>
+    <t>656009558</t>
+  </si>
+  <si>
+    <t>690759050</t>
+  </si>
+  <si>
+    <t>691359705</t>
+  </si>
+  <si>
+    <t>698623409</t>
+  </si>
+  <si>
+    <t>696626097</t>
+  </si>
+  <si>
+    <t>657538080</t>
+  </si>
+  <si>
+    <t>690451809</t>
+  </si>
+  <si>
+    <t>694118638</t>
+  </si>
+  <si>
+    <t>657771966</t>
+  </si>
+  <si>
+    <t>696427428</t>
+  </si>
+  <si>
+    <t>698282745</t>
+  </si>
+  <si>
+    <t>699056140</t>
+  </si>
+  <si>
+    <t>698299449</t>
+  </si>
+  <si>
+    <t>650698771</t>
+  </si>
+  <si>
+    <t>696688714</t>
+  </si>
+  <si>
+    <t>656646408</t>
+  </si>
+  <si>
+    <t>655791686</t>
+  </si>
+  <si>
+    <t>697448763</t>
+  </si>
+  <si>
+    <t>655449823</t>
+  </si>
+  <si>
+    <t>697438064</t>
+  </si>
+  <si>
+    <t>655294389</t>
+  </si>
+  <si>
+    <t>656910391</t>
+  </si>
+  <si>
+    <t>679158376</t>
+  </si>
+  <si>
+    <t>699498368</t>
+  </si>
+  <si>
+    <t>699322564</t>
+  </si>
+  <si>
+    <t>679806915</t>
+  </si>
+  <si>
+    <t>691313790</t>
+  </si>
+  <si>
+    <t>682972733</t>
+  </si>
+  <si>
+    <t>694121113</t>
+  </si>
+  <si>
+    <t>655619523</t>
+  </si>
+  <si>
+    <t>678924907</t>
+  </si>
+  <si>
+    <t>694229893</t>
+  </si>
+  <si>
+    <t>657294062</t>
+  </si>
+  <si>
+    <t>655806922</t>
+  </si>
+  <si>
+    <t>690222871</t>
+  </si>
+  <si>
+    <t>656189788</t>
+  </si>
+  <si>
+    <t>656368853</t>
+  </si>
+  <si>
+    <t>698987999</t>
+  </si>
+  <si>
+    <t>699033983</t>
+  </si>
+  <si>
+    <t>698771287</t>
+  </si>
+  <si>
+    <t>697093135</t>
+  </si>
+  <si>
+    <t>698443656</t>
+  </si>
+  <si>
+    <t>694955213</t>
+  </si>
+  <si>
+    <t>691795592</t>
+  </si>
+  <si>
+    <t>693795211</t>
+  </si>
+  <si>
+    <t>693011939</t>
+  </si>
+  <si>
+    <t>699309028</t>
+  </si>
+  <si>
+    <t>695495743</t>
+  </si>
+  <si>
+    <t>694736928</t>
+  </si>
+  <si>
+    <t>699275650</t>
+  </si>
+  <si>
+    <t>695060507</t>
+  </si>
+  <si>
+    <t>696444412</t>
+  </si>
+  <si>
+    <t>696404836</t>
+  </si>
+  <si>
+    <t>694914136</t>
+  </si>
+  <si>
+    <t>694128087</t>
+  </si>
+  <si>
+    <t>693279802</t>
+  </si>
+  <si>
+    <t>693681799</t>
+  </si>
+  <si>
+    <t>691201992</t>
+  </si>
+  <si>
+    <t>696886389</t>
+  </si>
+  <si>
+    <t>657644499</t>
+  </si>
+  <si>
+    <t>672259036</t>
+  </si>
+  <si>
+    <t>655633173</t>
+  </si>
+  <si>
+    <t>694528797</t>
+  </si>
+  <si>
+    <t>699221173</t>
+  </si>
+  <si>
+    <t>655503296</t>
+  </si>
+  <si>
+    <t>690941321</t>
+  </si>
+  <si>
+    <t>696982745</t>
+  </si>
+  <si>
+    <t>699233943</t>
+  </si>
+  <si>
+    <t>693062030</t>
+  </si>
+  <si>
+    <t>694574985</t>
+  </si>
+  <si>
+    <t>671210830</t>
+  </si>
+  <si>
+    <t>669454164</t>
+  </si>
+  <si>
+    <t>698706324</t>
+  </si>
+  <si>
+    <t>693970879</t>
+  </si>
+  <si>
+    <t>699178263</t>
+  </si>
+  <si>
+    <t>671311861</t>
+  </si>
+  <si>
+    <t>698577121</t>
+  </si>
+  <si>
+    <t>690499074</t>
+  </si>
+  <si>
+    <t>698599315</t>
+  </si>
+  <si>
+    <t>695813224</t>
+  </si>
+  <si>
+    <t>691825968</t>
+  </si>
+  <si>
+    <t>656317992</t>
+  </si>
+  <si>
+    <t>696744824</t>
+  </si>
+  <si>
+    <t>652121836</t>
+  </si>
+  <si>
+    <t>656709531</t>
+  </si>
+  <si>
+    <t>657951947</t>
+  </si>
+  <si>
+    <t>693426780</t>
+  </si>
+  <si>
+    <t>694246643</t>
+  </si>
+  <si>
+    <t>699123003</t>
+  </si>
+  <si>
+    <t>655802018</t>
+  </si>
+  <si>
+    <t>655696125</t>
+  </si>
+  <si>
+    <t>657039681</t>
+  </si>
+  <si>
+    <t>654407698</t>
+  </si>
+  <si>
+    <t>676697903</t>
+  </si>
+  <si>
+    <t>650960650</t>
+  </si>
+  <si>
+    <t>698145037</t>
+  </si>
+  <si>
+    <t>697607342</t>
+  </si>
+  <si>
+    <t>696922124</t>
+  </si>
+  <si>
+    <t>693884548</t>
+  </si>
+  <si>
+    <t>695786828</t>
+  </si>
+  <si>
+    <t>670219072</t>
+  </si>
+  <si>
+    <t>669030547</t>
+  </si>
+  <si>
+    <t>697612026</t>
+  </si>
+  <si>
+    <t>670417490</t>
+  </si>
+  <si>
+    <t>699720078</t>
+  </si>
+  <si>
+    <t>694273954</t>
+  </si>
+  <si>
+    <t>671889464</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,8 +787,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71,6 +805,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pgweb-1528743009_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,20 +1074,1245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:A243"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>655874410</v>
+      <c r="A1" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>694210203</v>
+      <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/web/import/contacts.xlsx
+++ b/web/import/contacts.xlsx
@@ -41,262 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="237">
-  <si>
-    <t>699880022</t>
-  </si>
-  <si>
-    <t>694725279</t>
-  </si>
-  <si>
-    <t>677050288</t>
-  </si>
-  <si>
-    <t>695921971</t>
-  </si>
-  <si>
-    <t>697166143</t>
-  </si>
-  <si>
-    <t>69423855</t>
-  </si>
-  <si>
-    <t>698614744</t>
-  </si>
-  <si>
-    <t>658205844</t>
-  </si>
-  <si>
-    <t>693051317</t>
-  </si>
-  <si>
-    <t>697546411</t>
-  </si>
-  <si>
-    <t>695414208</t>
-  </si>
-  <si>
-    <t>679409456</t>
-  </si>
-  <si>
-    <t>690685593</t>
-  </si>
-  <si>
-    <t>655241848</t>
-  </si>
-  <si>
-    <t>668713203</t>
-  </si>
-  <si>
-    <t>656637773</t>
-  </si>
-  <si>
-    <t>664464704</t>
-  </si>
-  <si>
-    <t>695142667</t>
-  </si>
-  <si>
-    <t>695109501</t>
-  </si>
-  <si>
-    <t>655433200</t>
-  </si>
-  <si>
-    <t>655300643</t>
-  </si>
-  <si>
-    <t>682235990</t>
-  </si>
-  <si>
-    <t>698354001</t>
-  </si>
-  <si>
-    <t>655262253</t>
-  </si>
-  <si>
-    <t>661539248</t>
-  </si>
-  <si>
-    <t>653207019</t>
-  </si>
-  <si>
-    <t>698765066</t>
-  </si>
-  <si>
-    <t>693668997</t>
-  </si>
-  <si>
-    <t>683111911</t>
-  </si>
-  <si>
-    <t>655121615</t>
-  </si>
-  <si>
-    <t>691837887</t>
-  </si>
-  <si>
-    <t>696035959</t>
-  </si>
-  <si>
-    <t>693182978</t>
-  </si>
-  <si>
-    <t>697279723</t>
-  </si>
-  <si>
-    <t>696564297</t>
-  </si>
-  <si>
-    <t>694683588</t>
-  </si>
-  <si>
-    <t>680802774</t>
-  </si>
-  <si>
-    <t>691248637</t>
-  </si>
-  <si>
-    <t>655123972</t>
-  </si>
-  <si>
-    <t>655317268</t>
-  </si>
-  <si>
-    <t>656043720</t>
-  </si>
-  <si>
-    <t>696650098</t>
-  </si>
-  <si>
-    <t>676998783</t>
-  </si>
-  <si>
-    <t>650474630</t>
-  </si>
-  <si>
-    <t>695651177</t>
-  </si>
-  <si>
-    <t>694298253</t>
-  </si>
-  <si>
-    <t>694227712</t>
-  </si>
-  <si>
-    <t>658274423</t>
-  </si>
-  <si>
-    <t>678465745</t>
-  </si>
-  <si>
-    <t>651063085</t>
-  </si>
-  <si>
-    <t>691818697</t>
-  </si>
-  <si>
-    <t>696640096</t>
-  </si>
-  <si>
-    <t>661350762</t>
-  </si>
-  <si>
-    <t>697377506</t>
-  </si>
-  <si>
-    <t>696476354</t>
-  </si>
-  <si>
-    <t>699873620</t>
-  </si>
-  <si>
-    <t>693740801</t>
-  </si>
-  <si>
-    <t>695876949</t>
-  </si>
-  <si>
-    <t>656198619</t>
-  </si>
-  <si>
-    <t>653895134</t>
-  </si>
-  <si>
-    <t>655319356</t>
-  </si>
-  <si>
-    <t>699367101</t>
-  </si>
-  <si>
-    <t>690508950</t>
-  </si>
-  <si>
-    <t>698830570</t>
-  </si>
-  <si>
-    <t>695702033</t>
-  </si>
-  <si>
-    <t>654835592</t>
-  </si>
-  <si>
-    <t>690935366</t>
-  </si>
-  <si>
-    <t>697665000</t>
-  </si>
-  <si>
-    <t>696623194</t>
-  </si>
-  <si>
-    <t>691694918</t>
-  </si>
-  <si>
-    <t>690951162</t>
-  </si>
-  <si>
-    <t>655318374</t>
-  </si>
-  <si>
-    <t>680448533</t>
-  </si>
-  <si>
-    <t>656713435</t>
-  </si>
-  <si>
-    <t>690561872</t>
-  </si>
-  <si>
-    <t>690892445</t>
-  </si>
-  <si>
-    <t>680411565</t>
-  </si>
-  <si>
-    <t>683923663</t>
-  </si>
-  <si>
-    <t>693459458</t>
-  </si>
-  <si>
-    <t>697246678</t>
-  </si>
-  <si>
-    <t>690497981</t>
-  </si>
-  <si>
-    <t>242988810</t>
-  </si>
-  <si>
-    <t>691505465</t>
-  </si>
-  <si>
-    <t>699441824</t>
-  </si>
-  <si>
-    <t>652263465</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>690559621</t>
   </si>
@@ -304,147 +49,9 @@
     <t>694210203</t>
   </si>
   <si>
-    <t>655080513</t>
-  </si>
-  <si>
-    <t>656059990</t>
-  </si>
-  <si>
-    <t>698145819</t>
-  </si>
-  <si>
-    <t>690107564</t>
-  </si>
-  <si>
-    <t>655316126</t>
-  </si>
-  <si>
-    <t>656270382</t>
-  </si>
-  <si>
-    <t>691500669</t>
-  </si>
-  <si>
-    <t>674493357</t>
-  </si>
-  <si>
-    <t>693092028</t>
-  </si>
-  <si>
-    <t>693594716</t>
-  </si>
-  <si>
-    <t>655874410</t>
-  </si>
-  <si>
-    <t>697034476</t>
-  </si>
-  <si>
-    <t>694679419</t>
-  </si>
-  <si>
     <t>690674595</t>
   </si>
   <si>
-    <t>650164409</t>
-  </si>
-  <si>
-    <t>695931789</t>
-  </si>
-  <si>
-    <t>672733788</t>
-  </si>
-  <si>
-    <t>656353894</t>
-  </si>
-  <si>
-    <t>695534290</t>
-  </si>
-  <si>
-    <t>656016077</t>
-  </si>
-  <si>
-    <t>693417673</t>
-  </si>
-  <si>
-    <t>695160784</t>
-  </si>
-  <si>
-    <t>653223116</t>
-  </si>
-  <si>
-    <t>656189829</t>
-  </si>
-  <si>
-    <t>677314456</t>
-  </si>
-  <si>
-    <t>691199238</t>
-  </si>
-  <si>
-    <t>656055566</t>
-  </si>
-  <si>
-    <t>678396599</t>
-  </si>
-  <si>
-    <t>696688576</t>
-  </si>
-  <si>
-    <t>691165262</t>
-  </si>
-  <si>
-    <t>675469379</t>
-  </si>
-  <si>
-    <t>651110524</t>
-  </si>
-  <si>
-    <t>650083470</t>
-  </si>
-  <si>
-    <t>679653859</t>
-  </si>
-  <si>
-    <t>679569422</t>
-  </si>
-  <si>
-    <t>676447537</t>
-  </si>
-  <si>
-    <t>699010032</t>
-  </si>
-  <si>
-    <t>655345621</t>
-  </si>
-  <si>
-    <t>698697306</t>
-  </si>
-  <si>
-    <t>696342196</t>
-  </si>
-  <si>
-    <t>650837672</t>
-  </si>
-  <si>
-    <t>694638198</t>
-  </si>
-  <si>
-    <t>698041567</t>
-  </si>
-  <si>
-    <t>656009558</t>
-  </si>
-  <si>
-    <t>690759050</t>
-  </si>
-  <si>
-    <t>691359705</t>
-  </si>
-  <si>
-    <t>698623409</t>
-  </si>
-  <si>
     <t>696626097</t>
   </si>
   <si>
@@ -721,27 +328,6 @@
     <t>698145037</t>
   </si>
   <si>
-    <t>697607342</t>
-  </si>
-  <si>
-    <t>696922124</t>
-  </si>
-  <si>
-    <t>693884548</t>
-  </si>
-  <si>
-    <t>695786828</t>
-  </si>
-  <si>
-    <t>670219072</t>
-  </si>
-  <si>
-    <t>669030547</t>
-  </si>
-  <si>
-    <t>697612026</t>
-  </si>
-  <si>
     <t>670417490</t>
   </si>
   <si>
@@ -752,6 +338,78 @@
   </si>
   <si>
     <t>671889464</t>
+  </si>
+  <si>
+    <t>690104981</t>
+  </si>
+  <si>
+    <t>690646390</t>
+  </si>
+  <si>
+    <t>656115412</t>
+  </si>
+  <si>
+    <t>697657362</t>
+  </si>
+  <si>
+    <t>696994731</t>
+  </si>
+  <si>
+    <t>697621108</t>
+  </si>
+  <si>
+    <t>698999940</t>
+  </si>
+  <si>
+    <t>654093862</t>
+  </si>
+  <si>
+    <t>694208890</t>
+  </si>
+  <si>
+    <t>697709688</t>
+  </si>
+  <si>
+    <t>675771424</t>
+  </si>
+  <si>
+    <t>655365147</t>
+  </si>
+  <si>
+    <t>694891267</t>
+  </si>
+  <si>
+    <t>690979139</t>
+  </si>
+  <si>
+    <t>694921373</t>
+  </si>
+  <si>
+    <t>699304829</t>
+  </si>
+  <si>
+    <t>693048290</t>
+  </si>
+  <si>
+    <t>693224848</t>
+  </si>
+  <si>
+    <t>650782630</t>
+  </si>
+  <si>
+    <t>690286198</t>
+  </si>
+  <si>
+    <t>691645164</t>
+  </si>
+  <si>
+    <t>698400044</t>
+  </si>
+  <si>
+    <t>696598366</t>
+  </si>
+  <si>
+    <t>655165924</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:A243"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,718 +745,482 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>226</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A100" s="1"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A106" s="1"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="A143" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1817,502 +1239,502 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>172</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>178</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>180</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>183</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>196</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>197</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>198</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>201</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>234</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>202</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>207</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>212</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>219</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>221</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>235</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>223</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>236</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/web/import/contacts.xlsx
+++ b/web/import/contacts.xlsx
@@ -9,13 +9,409 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23490" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="pgweb_1528743009" localSheetId="0">Feuil1!#REF!</definedName>
+    <definedName name="pgweb_1528743009_1" localSheetId="0">Feuil1!$A$1:$A$143</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="pgweb-15287430091" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\PLATA-PC\Desktop\pgweb-1528743009.csv" decimal="," thousands=" ">
+      <textFields>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+  <si>
+    <t>690559621</t>
+  </si>
+  <si>
+    <t>694210203</t>
+  </si>
+  <si>
+    <t>690674595</t>
+  </si>
+  <si>
+    <t>696626097</t>
+  </si>
+  <si>
+    <t>657538080</t>
+  </si>
+  <si>
+    <t>690451809</t>
+  </si>
+  <si>
+    <t>694118638</t>
+  </si>
+  <si>
+    <t>657771966</t>
+  </si>
+  <si>
+    <t>696427428</t>
+  </si>
+  <si>
+    <t>698282745</t>
+  </si>
+  <si>
+    <t>699056140</t>
+  </si>
+  <si>
+    <t>698299449</t>
+  </si>
+  <si>
+    <t>650698771</t>
+  </si>
+  <si>
+    <t>696688714</t>
+  </si>
+  <si>
+    <t>656646408</t>
+  </si>
+  <si>
+    <t>655791686</t>
+  </si>
+  <si>
+    <t>697448763</t>
+  </si>
+  <si>
+    <t>655449823</t>
+  </si>
+  <si>
+    <t>697438064</t>
+  </si>
+  <si>
+    <t>655294389</t>
+  </si>
+  <si>
+    <t>656910391</t>
+  </si>
+  <si>
+    <t>679158376</t>
+  </si>
+  <si>
+    <t>699498368</t>
+  </si>
+  <si>
+    <t>699322564</t>
+  </si>
+  <si>
+    <t>679806915</t>
+  </si>
+  <si>
+    <t>691313790</t>
+  </si>
+  <si>
+    <t>682972733</t>
+  </si>
+  <si>
+    <t>694121113</t>
+  </si>
+  <si>
+    <t>655619523</t>
+  </si>
+  <si>
+    <t>678924907</t>
+  </si>
+  <si>
+    <t>694229893</t>
+  </si>
+  <si>
+    <t>657294062</t>
+  </si>
+  <si>
+    <t>655806922</t>
+  </si>
+  <si>
+    <t>690222871</t>
+  </si>
+  <si>
+    <t>656189788</t>
+  </si>
+  <si>
+    <t>656368853</t>
+  </si>
+  <si>
+    <t>698987999</t>
+  </si>
+  <si>
+    <t>699033983</t>
+  </si>
+  <si>
+    <t>698771287</t>
+  </si>
+  <si>
+    <t>697093135</t>
+  </si>
+  <si>
+    <t>698443656</t>
+  </si>
+  <si>
+    <t>694955213</t>
+  </si>
+  <si>
+    <t>691795592</t>
+  </si>
+  <si>
+    <t>693795211</t>
+  </si>
+  <si>
+    <t>693011939</t>
+  </si>
+  <si>
+    <t>699309028</t>
+  </si>
+  <si>
+    <t>695495743</t>
+  </si>
+  <si>
+    <t>694736928</t>
+  </si>
+  <si>
+    <t>699275650</t>
+  </si>
+  <si>
+    <t>695060507</t>
+  </si>
+  <si>
+    <t>696444412</t>
+  </si>
+  <si>
+    <t>696404836</t>
+  </si>
+  <si>
+    <t>694914136</t>
+  </si>
+  <si>
+    <t>694128087</t>
+  </si>
+  <si>
+    <t>693279802</t>
+  </si>
+  <si>
+    <t>693681799</t>
+  </si>
+  <si>
+    <t>691201992</t>
+  </si>
+  <si>
+    <t>696886389</t>
+  </si>
+  <si>
+    <t>657644499</t>
+  </si>
+  <si>
+    <t>672259036</t>
+  </si>
+  <si>
+    <t>655633173</t>
+  </si>
+  <si>
+    <t>694528797</t>
+  </si>
+  <si>
+    <t>699221173</t>
+  </si>
+  <si>
+    <t>655503296</t>
+  </si>
+  <si>
+    <t>690941321</t>
+  </si>
+  <si>
+    <t>696982745</t>
+  </si>
+  <si>
+    <t>699233943</t>
+  </si>
+  <si>
+    <t>693062030</t>
+  </si>
+  <si>
+    <t>694574985</t>
+  </si>
+  <si>
+    <t>671210830</t>
+  </si>
+  <si>
+    <t>669454164</t>
+  </si>
+  <si>
+    <t>698706324</t>
+  </si>
+  <si>
+    <t>693970879</t>
+  </si>
+  <si>
+    <t>699178263</t>
+  </si>
+  <si>
+    <t>671311861</t>
+  </si>
+  <si>
+    <t>698577121</t>
+  </si>
+  <si>
+    <t>690499074</t>
+  </si>
+  <si>
+    <t>698599315</t>
+  </si>
+  <si>
+    <t>695813224</t>
+  </si>
+  <si>
+    <t>691825968</t>
+  </si>
+  <si>
+    <t>656317992</t>
+  </si>
+  <si>
+    <t>696744824</t>
+  </si>
+  <si>
+    <t>652121836</t>
+  </si>
+  <si>
+    <t>656709531</t>
+  </si>
+  <si>
+    <t>657951947</t>
+  </si>
+  <si>
+    <t>693426780</t>
+  </si>
+  <si>
+    <t>694246643</t>
+  </si>
+  <si>
+    <t>699123003</t>
+  </si>
+  <si>
+    <t>655802018</t>
+  </si>
+  <si>
+    <t>655696125</t>
+  </si>
+  <si>
+    <t>657039681</t>
+  </si>
+  <si>
+    <t>654407698</t>
+  </si>
+  <si>
+    <t>676697903</t>
+  </si>
+  <si>
+    <t>650960650</t>
+  </si>
+  <si>
+    <t>698145037</t>
+  </si>
+  <si>
+    <t>670417490</t>
+  </si>
+  <si>
+    <t>699720078</t>
+  </si>
+  <si>
+    <t>694273954</t>
+  </si>
+  <si>
+    <t>671889464</t>
+  </si>
+  <si>
+    <t>690104981</t>
+  </si>
+  <si>
+    <t>690646390</t>
+  </si>
+  <si>
+    <t>656115412</t>
+  </si>
+  <si>
+    <t>697657362</t>
+  </si>
+  <si>
+    <t>696994731</t>
+  </si>
+  <si>
+    <t>697621108</t>
+  </si>
+  <si>
+    <t>698999940</t>
+  </si>
+  <si>
+    <t>654093862</t>
+  </si>
+  <si>
+    <t>694208890</t>
+  </si>
+  <si>
+    <t>697709688</t>
+  </si>
+  <si>
+    <t>675771424</t>
+  </si>
+  <si>
+    <t>655365147</t>
+  </si>
+  <si>
+    <t>694891267</t>
+  </si>
+  <si>
+    <t>690979139</t>
+  </si>
+  <si>
+    <t>694921373</t>
+  </si>
+  <si>
+    <t>699304829</t>
+  </si>
+  <si>
+    <t>693048290</t>
+  </si>
+  <si>
+    <t>693224848</t>
+  </si>
+  <si>
+    <t>650782630</t>
+  </si>
+  <si>
+    <t>690286198</t>
+  </si>
+  <si>
+    <t>691645164</t>
+  </si>
+  <si>
+    <t>698400044</t>
+  </si>
+  <si>
+    <t>696598366</t>
+  </si>
+  <si>
+    <t>655165924</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +445,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +463,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pgweb-1528743009_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,22 +732,1009 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>655874410</v>
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>694210203</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
